--- a/汽柴煤油2.0/data_input/LU-FU.xlsx
+++ b/汽柴煤油2.0/data_input/LU-FU.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2287"/>
+  <dimension ref="A1:H2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52254,19 +52254,71 @@
         <v>54.28</v>
       </c>
       <c r="D2287" t="n">
-        <v>-76.2009</v>
+        <v>-78.4755</v>
       </c>
       <c r="E2287" t="n">
-        <v>457.4938</v>
+        <v>484.1943</v>
       </c>
       <c r="F2287" t="n">
         <v>-0.1214</v>
       </c>
       <c r="G2287" t="n">
-        <v>-7.2234</v>
+        <v>-3.5906</v>
       </c>
       <c r="H2287" t="n">
-        <v>-1.37</v>
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B2288" t="n">
+        <v>434</v>
+      </c>
+      <c r="C2288" t="n">
+        <v>59.17</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>-104.2828</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>424.0243</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>-0.0129</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>1.7827</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B2289" t="n">
+        <v>454</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>60.79</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>-93.495</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>490.9638</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>-0.1971</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>10.5705</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
